--- a/suppxls/Scen_nsv_demo_FillTable_nsv.xlsx
+++ b/suppxls/Scen_nsv_demo_FillTable_nsv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\VEDA_Models\Demo_Adv_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D625DDD6-209C-4B81-9E99-9D4673E82A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B12927-F25D-49F9-9B15-5B918281AC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="1875" windowWidth="15825" windowHeight="12210" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old FILL" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10024" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8913" uniqueCount="75">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -221,12 +221,6 @@
   </si>
   <si>
     <t>DEM_Ref</t>
-  </si>
-  <si>
-    <t>ShellImprovement-setup</t>
-  </si>
-  <si>
-    <t>demo_mig</t>
   </si>
   <si>
     <t>ELCTNCOA01</t>
@@ -1001,7 +995,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M880"/>
+  <dimension ref="A1:M786"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3710,7 +3704,7 @@
         <v>35</v>
       </c>
       <c r="M66">
-        <v>1155.6389589212433</v>
+        <v>1155.6389589212379</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -5555,7 +5549,7 @@
         <v>35</v>
       </c>
       <c r="M111">
-        <v>2350.1866783730343</v>
+        <v>2350.1866783730229</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -6293,7 +6287,7 @@
         <v>35</v>
       </c>
       <c r="M129">
-        <v>636.11378877082166</v>
+        <v>636.11378877081722</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -9245,7 +9239,7 @@
         <v>35</v>
       </c>
       <c r="M201">
-        <v>1850.3762689126174</v>
+        <v>1850.3762689126086</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -16625,7 +16619,7 @@
         <v>35</v>
       </c>
       <c r="M381">
-        <v>6343.6812617042815</v>
+        <v>6343.6812617042515</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -24333,7 +24327,7 @@
         <v>35</v>
       </c>
       <c r="M569">
-        <v>6610.9957109853949</v>
+        <v>6610.9957109853294</v>
       </c>
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.25">
@@ -24374,7 +24368,7 @@
         <v>35</v>
       </c>
       <c r="M570">
-        <v>6617.6067066963806</v>
+        <v>6617.6067066963133</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.25">
@@ -25030,7 +25024,7 @@
         <v>35</v>
       </c>
       <c r="M586">
-        <v>6724.2862447410744</v>
+        <v>6724.2862447410089</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.25">
@@ -25153,7 +25147,7 @@
         <v>35</v>
       </c>
       <c r="M589">
-        <v>6744.4792830583156</v>
+        <v>6744.4792830582501</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.25">
@@ -33231,3860 +33225,6 @@
       </c>
       <c r="M786">
         <v>2908.6482433237861</v>
-      </c>
-    </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A787" t="s">
-        <v>66</v>
-      </c>
-      <c r="B787" t="s">
-        <v>34</v>
-      </c>
-      <c r="C787" t="s">
-        <v>21</v>
-      </c>
-      <c r="D787" t="s">
-        <v>35</v>
-      </c>
-      <c r="E787" t="s">
-        <v>42</v>
-      </c>
-      <c r="F787" t="s">
-        <v>35</v>
-      </c>
-      <c r="G787" t="s">
-        <v>35</v>
-      </c>
-      <c r="H787">
-        <v>2005</v>
-      </c>
-      <c r="I787" t="s">
-        <v>35</v>
-      </c>
-      <c r="J787" t="s">
-        <v>35</v>
-      </c>
-      <c r="K787" t="s">
-        <v>35</v>
-      </c>
-      <c r="L787" t="s">
-        <v>35</v>
-      </c>
-      <c r="M787">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>66</v>
-      </c>
-      <c r="B788" t="s">
-        <v>34</v>
-      </c>
-      <c r="C788" t="s">
-        <v>21</v>
-      </c>
-      <c r="D788" t="s">
-        <v>35</v>
-      </c>
-      <c r="E788" t="s">
-        <v>43</v>
-      </c>
-      <c r="F788" t="s">
-        <v>35</v>
-      </c>
-      <c r="G788" t="s">
-        <v>35</v>
-      </c>
-      <c r="H788">
-        <v>2005</v>
-      </c>
-      <c r="I788" t="s">
-        <v>35</v>
-      </c>
-      <c r="J788" t="s">
-        <v>35</v>
-      </c>
-      <c r="K788" t="s">
-        <v>35</v>
-      </c>
-      <c r="L788" t="s">
-        <v>35</v>
-      </c>
-      <c r="M788">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>66</v>
-      </c>
-      <c r="B789" t="s">
-        <v>34</v>
-      </c>
-      <c r="C789" t="s">
-        <v>21</v>
-      </c>
-      <c r="D789" t="s">
-        <v>35</v>
-      </c>
-      <c r="E789" t="s">
-        <v>43</v>
-      </c>
-      <c r="F789" t="s">
-        <v>35</v>
-      </c>
-      <c r="G789" t="s">
-        <v>35</v>
-      </c>
-      <c r="H789">
-        <v>2006</v>
-      </c>
-      <c r="I789" t="s">
-        <v>35</v>
-      </c>
-      <c r="J789" t="s">
-        <v>35</v>
-      </c>
-      <c r="K789" t="s">
-        <v>35</v>
-      </c>
-      <c r="L789" t="s">
-        <v>35</v>
-      </c>
-      <c r="M789">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A790" t="s">
-        <v>66</v>
-      </c>
-      <c r="B790" t="s">
-        <v>34</v>
-      </c>
-      <c r="C790" t="s">
-        <v>21</v>
-      </c>
-      <c r="D790" t="s">
-        <v>35</v>
-      </c>
-      <c r="E790" t="s">
-        <v>43</v>
-      </c>
-      <c r="F790" t="s">
-        <v>35</v>
-      </c>
-      <c r="G790" t="s">
-        <v>35</v>
-      </c>
-      <c r="H790">
-        <v>2007</v>
-      </c>
-      <c r="I790" t="s">
-        <v>35</v>
-      </c>
-      <c r="J790" t="s">
-        <v>35</v>
-      </c>
-      <c r="K790" t="s">
-        <v>35</v>
-      </c>
-      <c r="L790" t="s">
-        <v>35</v>
-      </c>
-      <c r="M790">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A791" t="s">
-        <v>66</v>
-      </c>
-      <c r="B791" t="s">
-        <v>34</v>
-      </c>
-      <c r="C791" t="s">
-        <v>21</v>
-      </c>
-      <c r="D791" t="s">
-        <v>35</v>
-      </c>
-      <c r="E791" t="s">
-        <v>43</v>
-      </c>
-      <c r="F791" t="s">
-        <v>35</v>
-      </c>
-      <c r="G791" t="s">
-        <v>35</v>
-      </c>
-      <c r="H791">
-        <v>2008</v>
-      </c>
-      <c r="I791" t="s">
-        <v>35</v>
-      </c>
-      <c r="J791" t="s">
-        <v>35</v>
-      </c>
-      <c r="K791" t="s">
-        <v>35</v>
-      </c>
-      <c r="L791" t="s">
-        <v>35</v>
-      </c>
-      <c r="M791">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A792" t="s">
-        <v>66</v>
-      </c>
-      <c r="B792" t="s">
-        <v>34</v>
-      </c>
-      <c r="C792" t="s">
-        <v>21</v>
-      </c>
-      <c r="D792" t="s">
-        <v>35</v>
-      </c>
-      <c r="E792" t="s">
-        <v>43</v>
-      </c>
-      <c r="F792" t="s">
-        <v>35</v>
-      </c>
-      <c r="G792" t="s">
-        <v>35</v>
-      </c>
-      <c r="H792">
-        <v>2009</v>
-      </c>
-      <c r="I792" t="s">
-        <v>35</v>
-      </c>
-      <c r="J792" t="s">
-        <v>35</v>
-      </c>
-      <c r="K792" t="s">
-        <v>35</v>
-      </c>
-      <c r="L792" t="s">
-        <v>35</v>
-      </c>
-      <c r="M792">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A793" t="s">
-        <v>66</v>
-      </c>
-      <c r="B793" t="s">
-        <v>34</v>
-      </c>
-      <c r="C793" t="s">
-        <v>21</v>
-      </c>
-      <c r="D793" t="s">
-        <v>35</v>
-      </c>
-      <c r="E793" t="s">
-        <v>43</v>
-      </c>
-      <c r="F793" t="s">
-        <v>35</v>
-      </c>
-      <c r="G793" t="s">
-        <v>35</v>
-      </c>
-      <c r="H793">
-        <v>2010</v>
-      </c>
-      <c r="I793" t="s">
-        <v>35</v>
-      </c>
-      <c r="J793" t="s">
-        <v>35</v>
-      </c>
-      <c r="K793" t="s">
-        <v>35</v>
-      </c>
-      <c r="L793" t="s">
-        <v>35</v>
-      </c>
-      <c r="M793">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A794" t="s">
-        <v>66</v>
-      </c>
-      <c r="B794" t="s">
-        <v>34</v>
-      </c>
-      <c r="C794" t="s">
-        <v>21</v>
-      </c>
-      <c r="D794" t="s">
-        <v>35</v>
-      </c>
-      <c r="E794" t="s">
-        <v>43</v>
-      </c>
-      <c r="F794" t="s">
-        <v>35</v>
-      </c>
-      <c r="G794" t="s">
-        <v>35</v>
-      </c>
-      <c r="H794">
-        <v>2011</v>
-      </c>
-      <c r="I794" t="s">
-        <v>35</v>
-      </c>
-      <c r="J794" t="s">
-        <v>35</v>
-      </c>
-      <c r="K794" t="s">
-        <v>35</v>
-      </c>
-      <c r="L794" t="s">
-        <v>35</v>
-      </c>
-      <c r="M794">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A795" t="s">
-        <v>66</v>
-      </c>
-      <c r="B795" t="s">
-        <v>34</v>
-      </c>
-      <c r="C795" t="s">
-        <v>21</v>
-      </c>
-      <c r="D795" t="s">
-        <v>35</v>
-      </c>
-      <c r="E795" t="s">
-        <v>43</v>
-      </c>
-      <c r="F795" t="s">
-        <v>35</v>
-      </c>
-      <c r="G795" t="s">
-        <v>35</v>
-      </c>
-      <c r="H795">
-        <v>2012</v>
-      </c>
-      <c r="I795" t="s">
-        <v>35</v>
-      </c>
-      <c r="J795" t="s">
-        <v>35</v>
-      </c>
-      <c r="K795" t="s">
-        <v>35</v>
-      </c>
-      <c r="L795" t="s">
-        <v>35</v>
-      </c>
-      <c r="M795">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A796" t="s">
-        <v>66</v>
-      </c>
-      <c r="B796" t="s">
-        <v>34</v>
-      </c>
-      <c r="C796" t="s">
-        <v>21</v>
-      </c>
-      <c r="D796" t="s">
-        <v>35</v>
-      </c>
-      <c r="E796" t="s">
-        <v>43</v>
-      </c>
-      <c r="F796" t="s">
-        <v>35</v>
-      </c>
-      <c r="G796" t="s">
-        <v>35</v>
-      </c>
-      <c r="H796">
-        <v>2013</v>
-      </c>
-      <c r="I796" t="s">
-        <v>35</v>
-      </c>
-      <c r="J796" t="s">
-        <v>35</v>
-      </c>
-      <c r="K796" t="s">
-        <v>35</v>
-      </c>
-      <c r="L796" t="s">
-        <v>35</v>
-      </c>
-      <c r="M796">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>66</v>
-      </c>
-      <c r="B797" t="s">
-        <v>34</v>
-      </c>
-      <c r="C797" t="s">
-        <v>21</v>
-      </c>
-      <c r="D797" t="s">
-        <v>35</v>
-      </c>
-      <c r="E797" t="s">
-        <v>43</v>
-      </c>
-      <c r="F797" t="s">
-        <v>35</v>
-      </c>
-      <c r="G797" t="s">
-        <v>35</v>
-      </c>
-      <c r="H797">
-        <v>2014</v>
-      </c>
-      <c r="I797" t="s">
-        <v>35</v>
-      </c>
-      <c r="J797" t="s">
-        <v>35</v>
-      </c>
-      <c r="K797" t="s">
-        <v>35</v>
-      </c>
-      <c r="L797" t="s">
-        <v>35</v>
-      </c>
-      <c r="M797">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A798" t="s">
-        <v>66</v>
-      </c>
-      <c r="B798" t="s">
-        <v>34</v>
-      </c>
-      <c r="C798" t="s">
-        <v>21</v>
-      </c>
-      <c r="D798" t="s">
-        <v>35</v>
-      </c>
-      <c r="E798" t="s">
-        <v>43</v>
-      </c>
-      <c r="F798" t="s">
-        <v>35</v>
-      </c>
-      <c r="G798" t="s">
-        <v>35</v>
-      </c>
-      <c r="H798">
-        <v>2015</v>
-      </c>
-      <c r="I798" t="s">
-        <v>35</v>
-      </c>
-      <c r="J798" t="s">
-        <v>35</v>
-      </c>
-      <c r="K798" t="s">
-        <v>35</v>
-      </c>
-      <c r="L798" t="s">
-        <v>35</v>
-      </c>
-      <c r="M798">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A799" t="s">
-        <v>66</v>
-      </c>
-      <c r="B799" t="s">
-        <v>34</v>
-      </c>
-      <c r="C799" t="s">
-        <v>21</v>
-      </c>
-      <c r="D799" t="s">
-        <v>35</v>
-      </c>
-      <c r="E799" t="s">
-        <v>43</v>
-      </c>
-      <c r="F799" t="s">
-        <v>35</v>
-      </c>
-      <c r="G799" t="s">
-        <v>35</v>
-      </c>
-      <c r="H799">
-        <v>2016</v>
-      </c>
-      <c r="I799" t="s">
-        <v>35</v>
-      </c>
-      <c r="J799" t="s">
-        <v>35</v>
-      </c>
-      <c r="K799" t="s">
-        <v>35</v>
-      </c>
-      <c r="L799" t="s">
-        <v>35</v>
-      </c>
-      <c r="M799">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A800" t="s">
-        <v>66</v>
-      </c>
-      <c r="B800" t="s">
-        <v>34</v>
-      </c>
-      <c r="C800" t="s">
-        <v>21</v>
-      </c>
-      <c r="D800" t="s">
-        <v>35</v>
-      </c>
-      <c r="E800" t="s">
-        <v>43</v>
-      </c>
-      <c r="F800" t="s">
-        <v>35</v>
-      </c>
-      <c r="G800" t="s">
-        <v>35</v>
-      </c>
-      <c r="H800">
-        <v>2017</v>
-      </c>
-      <c r="I800" t="s">
-        <v>35</v>
-      </c>
-      <c r="J800" t="s">
-        <v>35</v>
-      </c>
-      <c r="K800" t="s">
-        <v>35</v>
-      </c>
-      <c r="L800" t="s">
-        <v>35</v>
-      </c>
-      <c r="M800">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>66</v>
-      </c>
-      <c r="B801" t="s">
-        <v>34</v>
-      </c>
-      <c r="C801" t="s">
-        <v>21</v>
-      </c>
-      <c r="D801" t="s">
-        <v>35</v>
-      </c>
-      <c r="E801" t="s">
-        <v>43</v>
-      </c>
-      <c r="F801" t="s">
-        <v>35</v>
-      </c>
-      <c r="G801" t="s">
-        <v>35</v>
-      </c>
-      <c r="H801">
-        <v>2018</v>
-      </c>
-      <c r="I801" t="s">
-        <v>35</v>
-      </c>
-      <c r="J801" t="s">
-        <v>35</v>
-      </c>
-      <c r="K801" t="s">
-        <v>35</v>
-      </c>
-      <c r="L801" t="s">
-        <v>35</v>
-      </c>
-      <c r="M801">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>66</v>
-      </c>
-      <c r="B802" t="s">
-        <v>34</v>
-      </c>
-      <c r="C802" t="s">
-        <v>21</v>
-      </c>
-      <c r="D802" t="s">
-        <v>35</v>
-      </c>
-      <c r="E802" t="s">
-        <v>43</v>
-      </c>
-      <c r="F802" t="s">
-        <v>35</v>
-      </c>
-      <c r="G802" t="s">
-        <v>35</v>
-      </c>
-      <c r="H802">
-        <v>2019</v>
-      </c>
-      <c r="I802" t="s">
-        <v>35</v>
-      </c>
-      <c r="J802" t="s">
-        <v>35</v>
-      </c>
-      <c r="K802" t="s">
-        <v>35</v>
-      </c>
-      <c r="L802" t="s">
-        <v>35</v>
-      </c>
-      <c r="M802">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A803" t="s">
-        <v>66</v>
-      </c>
-      <c r="B803" t="s">
-        <v>34</v>
-      </c>
-      <c r="C803" t="s">
-        <v>21</v>
-      </c>
-      <c r="D803" t="s">
-        <v>35</v>
-      </c>
-      <c r="E803" t="s">
-        <v>43</v>
-      </c>
-      <c r="F803" t="s">
-        <v>35</v>
-      </c>
-      <c r="G803" t="s">
-        <v>35</v>
-      </c>
-      <c r="H803">
-        <v>2020</v>
-      </c>
-      <c r="I803" t="s">
-        <v>35</v>
-      </c>
-      <c r="J803" t="s">
-        <v>35</v>
-      </c>
-      <c r="K803" t="s">
-        <v>35</v>
-      </c>
-      <c r="L803" t="s">
-        <v>35</v>
-      </c>
-      <c r="M803">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A804" t="s">
-        <v>66</v>
-      </c>
-      <c r="B804" t="s">
-        <v>34</v>
-      </c>
-      <c r="C804" t="s">
-        <v>21</v>
-      </c>
-      <c r="D804" t="s">
-        <v>35</v>
-      </c>
-      <c r="E804" t="s">
-        <v>43</v>
-      </c>
-      <c r="F804" t="s">
-        <v>35</v>
-      </c>
-      <c r="G804" t="s">
-        <v>35</v>
-      </c>
-      <c r="H804">
-        <v>2021</v>
-      </c>
-      <c r="I804" t="s">
-        <v>35</v>
-      </c>
-      <c r="J804" t="s">
-        <v>35</v>
-      </c>
-      <c r="K804" t="s">
-        <v>35</v>
-      </c>
-      <c r="L804" t="s">
-        <v>35</v>
-      </c>
-      <c r="M804">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A805" t="s">
-        <v>66</v>
-      </c>
-      <c r="B805" t="s">
-        <v>34</v>
-      </c>
-      <c r="C805" t="s">
-        <v>21</v>
-      </c>
-      <c r="D805" t="s">
-        <v>35</v>
-      </c>
-      <c r="E805" t="s">
-        <v>43</v>
-      </c>
-      <c r="F805" t="s">
-        <v>35</v>
-      </c>
-      <c r="G805" t="s">
-        <v>35</v>
-      </c>
-      <c r="H805">
-        <v>2022</v>
-      </c>
-      <c r="I805" t="s">
-        <v>35</v>
-      </c>
-      <c r="J805" t="s">
-        <v>35</v>
-      </c>
-      <c r="K805" t="s">
-        <v>35</v>
-      </c>
-      <c r="L805" t="s">
-        <v>35</v>
-      </c>
-      <c r="M805">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A806" t="s">
-        <v>66</v>
-      </c>
-      <c r="B806" t="s">
-        <v>34</v>
-      </c>
-      <c r="C806" t="s">
-        <v>21</v>
-      </c>
-      <c r="D806" t="s">
-        <v>35</v>
-      </c>
-      <c r="E806" t="s">
-        <v>43</v>
-      </c>
-      <c r="F806" t="s">
-        <v>35</v>
-      </c>
-      <c r="G806" t="s">
-        <v>35</v>
-      </c>
-      <c r="H806">
-        <v>2023</v>
-      </c>
-      <c r="I806" t="s">
-        <v>35</v>
-      </c>
-      <c r="J806" t="s">
-        <v>35</v>
-      </c>
-      <c r="K806" t="s">
-        <v>35</v>
-      </c>
-      <c r="L806" t="s">
-        <v>35</v>
-      </c>
-      <c r="M806">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A807" t="s">
-        <v>66</v>
-      </c>
-      <c r="B807" t="s">
-        <v>34</v>
-      </c>
-      <c r="C807" t="s">
-        <v>21</v>
-      </c>
-      <c r="D807" t="s">
-        <v>35</v>
-      </c>
-      <c r="E807" t="s">
-        <v>43</v>
-      </c>
-      <c r="F807" t="s">
-        <v>35</v>
-      </c>
-      <c r="G807" t="s">
-        <v>35</v>
-      </c>
-      <c r="H807">
-        <v>2024</v>
-      </c>
-      <c r="I807" t="s">
-        <v>35</v>
-      </c>
-      <c r="J807" t="s">
-        <v>35</v>
-      </c>
-      <c r="K807" t="s">
-        <v>35</v>
-      </c>
-      <c r="L807" t="s">
-        <v>35</v>
-      </c>
-      <c r="M807">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A808" t="s">
-        <v>66</v>
-      </c>
-      <c r="B808" t="s">
-        <v>34</v>
-      </c>
-      <c r="C808" t="s">
-        <v>21</v>
-      </c>
-      <c r="D808" t="s">
-        <v>35</v>
-      </c>
-      <c r="E808" t="s">
-        <v>43</v>
-      </c>
-      <c r="F808" t="s">
-        <v>35</v>
-      </c>
-      <c r="G808" t="s">
-        <v>35</v>
-      </c>
-      <c r="H808">
-        <v>2025</v>
-      </c>
-      <c r="I808" t="s">
-        <v>35</v>
-      </c>
-      <c r="J808" t="s">
-        <v>35</v>
-      </c>
-      <c r="K808" t="s">
-        <v>35</v>
-      </c>
-      <c r="L808" t="s">
-        <v>35</v>
-      </c>
-      <c r="M808">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
-        <v>66</v>
-      </c>
-      <c r="B809" t="s">
-        <v>34</v>
-      </c>
-      <c r="C809" t="s">
-        <v>21</v>
-      </c>
-      <c r="D809" t="s">
-        <v>35</v>
-      </c>
-      <c r="E809" t="s">
-        <v>43</v>
-      </c>
-      <c r="F809" t="s">
-        <v>35</v>
-      </c>
-      <c r="G809" t="s">
-        <v>35</v>
-      </c>
-      <c r="H809">
-        <v>2026</v>
-      </c>
-      <c r="I809" t="s">
-        <v>35</v>
-      </c>
-      <c r="J809" t="s">
-        <v>35</v>
-      </c>
-      <c r="K809" t="s">
-        <v>35</v>
-      </c>
-      <c r="L809" t="s">
-        <v>35</v>
-      </c>
-      <c r="M809">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A810" t="s">
-        <v>66</v>
-      </c>
-      <c r="B810" t="s">
-        <v>34</v>
-      </c>
-      <c r="C810" t="s">
-        <v>21</v>
-      </c>
-      <c r="D810" t="s">
-        <v>35</v>
-      </c>
-      <c r="E810" t="s">
-        <v>43</v>
-      </c>
-      <c r="F810" t="s">
-        <v>35</v>
-      </c>
-      <c r="G810" t="s">
-        <v>35</v>
-      </c>
-      <c r="H810">
-        <v>2027</v>
-      </c>
-      <c r="I810" t="s">
-        <v>35</v>
-      </c>
-      <c r="J810" t="s">
-        <v>35</v>
-      </c>
-      <c r="K810" t="s">
-        <v>35</v>
-      </c>
-      <c r="L810" t="s">
-        <v>35</v>
-      </c>
-      <c r="M810">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A811" t="s">
-        <v>66</v>
-      </c>
-      <c r="B811" t="s">
-        <v>34</v>
-      </c>
-      <c r="C811" t="s">
-        <v>21</v>
-      </c>
-      <c r="D811" t="s">
-        <v>35</v>
-      </c>
-      <c r="E811" t="s">
-        <v>43</v>
-      </c>
-      <c r="F811" t="s">
-        <v>35</v>
-      </c>
-      <c r="G811" t="s">
-        <v>35</v>
-      </c>
-      <c r="H811">
-        <v>2028</v>
-      </c>
-      <c r="I811" t="s">
-        <v>35</v>
-      </c>
-      <c r="J811" t="s">
-        <v>35</v>
-      </c>
-      <c r="K811" t="s">
-        <v>35</v>
-      </c>
-      <c r="L811" t="s">
-        <v>35</v>
-      </c>
-      <c r="M811">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A812" t="s">
-        <v>66</v>
-      </c>
-      <c r="B812" t="s">
-        <v>34</v>
-      </c>
-      <c r="C812" t="s">
-        <v>21</v>
-      </c>
-      <c r="D812" t="s">
-        <v>35</v>
-      </c>
-      <c r="E812" t="s">
-        <v>43</v>
-      </c>
-      <c r="F812" t="s">
-        <v>35</v>
-      </c>
-      <c r="G812" t="s">
-        <v>35</v>
-      </c>
-      <c r="H812">
-        <v>2029</v>
-      </c>
-      <c r="I812" t="s">
-        <v>35</v>
-      </c>
-      <c r="J812" t="s">
-        <v>35</v>
-      </c>
-      <c r="K812" t="s">
-        <v>35</v>
-      </c>
-      <c r="L812" t="s">
-        <v>35</v>
-      </c>
-      <c r="M812">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A813" t="s">
-        <v>66</v>
-      </c>
-      <c r="B813" t="s">
-        <v>34</v>
-      </c>
-      <c r="C813" t="s">
-        <v>21</v>
-      </c>
-      <c r="D813" t="s">
-        <v>35</v>
-      </c>
-      <c r="E813" t="s">
-        <v>43</v>
-      </c>
-      <c r="F813" t="s">
-        <v>35</v>
-      </c>
-      <c r="G813" t="s">
-        <v>35</v>
-      </c>
-      <c r="H813">
-        <v>2030</v>
-      </c>
-      <c r="I813" t="s">
-        <v>35</v>
-      </c>
-      <c r="J813" t="s">
-        <v>35</v>
-      </c>
-      <c r="K813" t="s">
-        <v>35</v>
-      </c>
-      <c r="L813" t="s">
-        <v>35</v>
-      </c>
-      <c r="M813">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
-        <v>66</v>
-      </c>
-      <c r="B814" t="s">
-        <v>34</v>
-      </c>
-      <c r="C814" t="s">
-        <v>21</v>
-      </c>
-      <c r="D814" t="s">
-        <v>35</v>
-      </c>
-      <c r="E814" t="s">
-        <v>43</v>
-      </c>
-      <c r="F814" t="s">
-        <v>35</v>
-      </c>
-      <c r="G814" t="s">
-        <v>35</v>
-      </c>
-      <c r="H814">
-        <v>2031</v>
-      </c>
-      <c r="I814" t="s">
-        <v>35</v>
-      </c>
-      <c r="J814" t="s">
-        <v>35</v>
-      </c>
-      <c r="K814" t="s">
-        <v>35</v>
-      </c>
-      <c r="L814" t="s">
-        <v>35</v>
-      </c>
-      <c r="M814">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A815" t="s">
-        <v>66</v>
-      </c>
-      <c r="B815" t="s">
-        <v>34</v>
-      </c>
-      <c r="C815" t="s">
-        <v>21</v>
-      </c>
-      <c r="D815" t="s">
-        <v>35</v>
-      </c>
-      <c r="E815" t="s">
-        <v>43</v>
-      </c>
-      <c r="F815" t="s">
-        <v>35</v>
-      </c>
-      <c r="G815" t="s">
-        <v>35</v>
-      </c>
-      <c r="H815">
-        <v>2032</v>
-      </c>
-      <c r="I815" t="s">
-        <v>35</v>
-      </c>
-      <c r="J815" t="s">
-        <v>35</v>
-      </c>
-      <c r="K815" t="s">
-        <v>35</v>
-      </c>
-      <c r="L815" t="s">
-        <v>35</v>
-      </c>
-      <c r="M815">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A816" t="s">
-        <v>66</v>
-      </c>
-      <c r="B816" t="s">
-        <v>34</v>
-      </c>
-      <c r="C816" t="s">
-        <v>21</v>
-      </c>
-      <c r="D816" t="s">
-        <v>35</v>
-      </c>
-      <c r="E816" t="s">
-        <v>43</v>
-      </c>
-      <c r="F816" t="s">
-        <v>35</v>
-      </c>
-      <c r="G816" t="s">
-        <v>35</v>
-      </c>
-      <c r="H816">
-        <v>2033</v>
-      </c>
-      <c r="I816" t="s">
-        <v>35</v>
-      </c>
-      <c r="J816" t="s">
-        <v>35</v>
-      </c>
-      <c r="K816" t="s">
-        <v>35</v>
-      </c>
-      <c r="L816" t="s">
-        <v>35</v>
-      </c>
-      <c r="M816">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A817" t="s">
-        <v>66</v>
-      </c>
-      <c r="B817" t="s">
-        <v>34</v>
-      </c>
-      <c r="C817" t="s">
-        <v>21</v>
-      </c>
-      <c r="D817" t="s">
-        <v>35</v>
-      </c>
-      <c r="E817" t="s">
-        <v>43</v>
-      </c>
-      <c r="F817" t="s">
-        <v>35</v>
-      </c>
-      <c r="G817" t="s">
-        <v>35</v>
-      </c>
-      <c r="H817">
-        <v>2034</v>
-      </c>
-      <c r="I817" t="s">
-        <v>35</v>
-      </c>
-      <c r="J817" t="s">
-        <v>35</v>
-      </c>
-      <c r="K817" t="s">
-        <v>35</v>
-      </c>
-      <c r="L817" t="s">
-        <v>35</v>
-      </c>
-      <c r="M817">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A818" t="s">
-        <v>66</v>
-      </c>
-      <c r="B818" t="s">
-        <v>34</v>
-      </c>
-      <c r="C818" t="s">
-        <v>21</v>
-      </c>
-      <c r="D818" t="s">
-        <v>35</v>
-      </c>
-      <c r="E818" t="s">
-        <v>43</v>
-      </c>
-      <c r="F818" t="s">
-        <v>35</v>
-      </c>
-      <c r="G818" t="s">
-        <v>35</v>
-      </c>
-      <c r="H818">
-        <v>2035</v>
-      </c>
-      <c r="I818" t="s">
-        <v>35</v>
-      </c>
-      <c r="J818" t="s">
-        <v>35</v>
-      </c>
-      <c r="K818" t="s">
-        <v>35</v>
-      </c>
-      <c r="L818" t="s">
-        <v>35</v>
-      </c>
-      <c r="M818">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A819" t="s">
-        <v>66</v>
-      </c>
-      <c r="B819" t="s">
-        <v>34</v>
-      </c>
-      <c r="C819" t="s">
-        <v>21</v>
-      </c>
-      <c r="D819" t="s">
-        <v>35</v>
-      </c>
-      <c r="E819" t="s">
-        <v>43</v>
-      </c>
-      <c r="F819" t="s">
-        <v>35</v>
-      </c>
-      <c r="G819" t="s">
-        <v>35</v>
-      </c>
-      <c r="H819">
-        <v>2036</v>
-      </c>
-      <c r="I819" t="s">
-        <v>35</v>
-      </c>
-      <c r="J819" t="s">
-        <v>35</v>
-      </c>
-      <c r="K819" t="s">
-        <v>35</v>
-      </c>
-      <c r="L819" t="s">
-        <v>35</v>
-      </c>
-      <c r="M819">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A820" t="s">
-        <v>66</v>
-      </c>
-      <c r="B820" t="s">
-        <v>34</v>
-      </c>
-      <c r="C820" t="s">
-        <v>21</v>
-      </c>
-      <c r="D820" t="s">
-        <v>35</v>
-      </c>
-      <c r="E820" t="s">
-        <v>43</v>
-      </c>
-      <c r="F820" t="s">
-        <v>35</v>
-      </c>
-      <c r="G820" t="s">
-        <v>35</v>
-      </c>
-      <c r="H820">
-        <v>2037</v>
-      </c>
-      <c r="I820" t="s">
-        <v>35</v>
-      </c>
-      <c r="J820" t="s">
-        <v>35</v>
-      </c>
-      <c r="K820" t="s">
-        <v>35</v>
-      </c>
-      <c r="L820" t="s">
-        <v>35</v>
-      </c>
-      <c r="M820">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
-        <v>66</v>
-      </c>
-      <c r="B821" t="s">
-        <v>34</v>
-      </c>
-      <c r="C821" t="s">
-        <v>21</v>
-      </c>
-      <c r="D821" t="s">
-        <v>35</v>
-      </c>
-      <c r="E821" t="s">
-        <v>43</v>
-      </c>
-      <c r="F821" t="s">
-        <v>35</v>
-      </c>
-      <c r="G821" t="s">
-        <v>35</v>
-      </c>
-      <c r="H821">
-        <v>2038</v>
-      </c>
-      <c r="I821" t="s">
-        <v>35</v>
-      </c>
-      <c r="J821" t="s">
-        <v>35</v>
-      </c>
-      <c r="K821" t="s">
-        <v>35</v>
-      </c>
-      <c r="L821" t="s">
-        <v>35</v>
-      </c>
-      <c r="M821">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A822" t="s">
-        <v>66</v>
-      </c>
-      <c r="B822" t="s">
-        <v>34</v>
-      </c>
-      <c r="C822" t="s">
-        <v>21</v>
-      </c>
-      <c r="D822" t="s">
-        <v>35</v>
-      </c>
-      <c r="E822" t="s">
-        <v>43</v>
-      </c>
-      <c r="F822" t="s">
-        <v>35</v>
-      </c>
-      <c r="G822" t="s">
-        <v>35</v>
-      </c>
-      <c r="H822">
-        <v>2039</v>
-      </c>
-      <c r="I822" t="s">
-        <v>35</v>
-      </c>
-      <c r="J822" t="s">
-        <v>35</v>
-      </c>
-      <c r="K822" t="s">
-        <v>35</v>
-      </c>
-      <c r="L822" t="s">
-        <v>35</v>
-      </c>
-      <c r="M822">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A823" t="s">
-        <v>66</v>
-      </c>
-      <c r="B823" t="s">
-        <v>34</v>
-      </c>
-      <c r="C823" t="s">
-        <v>21</v>
-      </c>
-      <c r="D823" t="s">
-        <v>35</v>
-      </c>
-      <c r="E823" t="s">
-        <v>43</v>
-      </c>
-      <c r="F823" t="s">
-        <v>35</v>
-      </c>
-      <c r="G823" t="s">
-        <v>35</v>
-      </c>
-      <c r="H823">
-        <v>2040</v>
-      </c>
-      <c r="I823" t="s">
-        <v>35</v>
-      </c>
-      <c r="J823" t="s">
-        <v>35</v>
-      </c>
-      <c r="K823" t="s">
-        <v>35</v>
-      </c>
-      <c r="L823" t="s">
-        <v>35</v>
-      </c>
-      <c r="M823">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>66</v>
-      </c>
-      <c r="B824" t="s">
-        <v>34</v>
-      </c>
-      <c r="C824" t="s">
-        <v>21</v>
-      </c>
-      <c r="D824" t="s">
-        <v>35</v>
-      </c>
-      <c r="E824" t="s">
-        <v>43</v>
-      </c>
-      <c r="F824" t="s">
-        <v>35</v>
-      </c>
-      <c r="G824" t="s">
-        <v>35</v>
-      </c>
-      <c r="H824">
-        <v>2041</v>
-      </c>
-      <c r="I824" t="s">
-        <v>35</v>
-      </c>
-      <c r="J824" t="s">
-        <v>35</v>
-      </c>
-      <c r="K824" t="s">
-        <v>35</v>
-      </c>
-      <c r="L824" t="s">
-        <v>35</v>
-      </c>
-      <c r="M824">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A825" t="s">
-        <v>66</v>
-      </c>
-      <c r="B825" t="s">
-        <v>34</v>
-      </c>
-      <c r="C825" t="s">
-        <v>21</v>
-      </c>
-      <c r="D825" t="s">
-        <v>35</v>
-      </c>
-      <c r="E825" t="s">
-        <v>43</v>
-      </c>
-      <c r="F825" t="s">
-        <v>35</v>
-      </c>
-      <c r="G825" t="s">
-        <v>35</v>
-      </c>
-      <c r="H825">
-        <v>2042</v>
-      </c>
-      <c r="I825" t="s">
-        <v>35</v>
-      </c>
-      <c r="J825" t="s">
-        <v>35</v>
-      </c>
-      <c r="K825" t="s">
-        <v>35</v>
-      </c>
-      <c r="L825" t="s">
-        <v>35</v>
-      </c>
-      <c r="M825">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A826" t="s">
-        <v>66</v>
-      </c>
-      <c r="B826" t="s">
-        <v>34</v>
-      </c>
-      <c r="C826" t="s">
-        <v>21</v>
-      </c>
-      <c r="D826" t="s">
-        <v>35</v>
-      </c>
-      <c r="E826" t="s">
-        <v>43</v>
-      </c>
-      <c r="F826" t="s">
-        <v>35</v>
-      </c>
-      <c r="G826" t="s">
-        <v>35</v>
-      </c>
-      <c r="H826">
-        <v>2043</v>
-      </c>
-      <c r="I826" t="s">
-        <v>35</v>
-      </c>
-      <c r="J826" t="s">
-        <v>35</v>
-      </c>
-      <c r="K826" t="s">
-        <v>35</v>
-      </c>
-      <c r="L826" t="s">
-        <v>35</v>
-      </c>
-      <c r="M826">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A827" t="s">
-        <v>66</v>
-      </c>
-      <c r="B827" t="s">
-        <v>34</v>
-      </c>
-      <c r="C827" t="s">
-        <v>21</v>
-      </c>
-      <c r="D827" t="s">
-        <v>35</v>
-      </c>
-      <c r="E827" t="s">
-        <v>43</v>
-      </c>
-      <c r="F827" t="s">
-        <v>35</v>
-      </c>
-      <c r="G827" t="s">
-        <v>35</v>
-      </c>
-      <c r="H827">
-        <v>2044</v>
-      </c>
-      <c r="I827" t="s">
-        <v>35</v>
-      </c>
-      <c r="J827" t="s">
-        <v>35</v>
-      </c>
-      <c r="K827" t="s">
-        <v>35</v>
-      </c>
-      <c r="L827" t="s">
-        <v>35</v>
-      </c>
-      <c r="M827">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A828" t="s">
-        <v>66</v>
-      </c>
-      <c r="B828" t="s">
-        <v>34</v>
-      </c>
-      <c r="C828" t="s">
-        <v>21</v>
-      </c>
-      <c r="D828" t="s">
-        <v>35</v>
-      </c>
-      <c r="E828" t="s">
-        <v>43</v>
-      </c>
-      <c r="F828" t="s">
-        <v>35</v>
-      </c>
-      <c r="G828" t="s">
-        <v>35</v>
-      </c>
-      <c r="H828">
-        <v>2045</v>
-      </c>
-      <c r="I828" t="s">
-        <v>35</v>
-      </c>
-      <c r="J828" t="s">
-        <v>35</v>
-      </c>
-      <c r="K828" t="s">
-        <v>35</v>
-      </c>
-      <c r="L828" t="s">
-        <v>35</v>
-      </c>
-      <c r="M828">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>66</v>
-      </c>
-      <c r="B829" t="s">
-        <v>34</v>
-      </c>
-      <c r="C829" t="s">
-        <v>21</v>
-      </c>
-      <c r="D829" t="s">
-        <v>35</v>
-      </c>
-      <c r="E829" t="s">
-        <v>43</v>
-      </c>
-      <c r="F829" t="s">
-        <v>35</v>
-      </c>
-      <c r="G829" t="s">
-        <v>35</v>
-      </c>
-      <c r="H829">
-        <v>2046</v>
-      </c>
-      <c r="I829" t="s">
-        <v>35</v>
-      </c>
-      <c r="J829" t="s">
-        <v>35</v>
-      </c>
-      <c r="K829" t="s">
-        <v>35</v>
-      </c>
-      <c r="L829" t="s">
-        <v>35</v>
-      </c>
-      <c r="M829">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>66</v>
-      </c>
-      <c r="B830" t="s">
-        <v>34</v>
-      </c>
-      <c r="C830" t="s">
-        <v>21</v>
-      </c>
-      <c r="D830" t="s">
-        <v>35</v>
-      </c>
-      <c r="E830" t="s">
-        <v>43</v>
-      </c>
-      <c r="F830" t="s">
-        <v>35</v>
-      </c>
-      <c r="G830" t="s">
-        <v>35</v>
-      </c>
-      <c r="H830">
-        <v>2047</v>
-      </c>
-      <c r="I830" t="s">
-        <v>35</v>
-      </c>
-      <c r="J830" t="s">
-        <v>35</v>
-      </c>
-      <c r="K830" t="s">
-        <v>35</v>
-      </c>
-      <c r="L830" t="s">
-        <v>35</v>
-      </c>
-      <c r="M830">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A831" t="s">
-        <v>66</v>
-      </c>
-      <c r="B831" t="s">
-        <v>34</v>
-      </c>
-      <c r="C831" t="s">
-        <v>21</v>
-      </c>
-      <c r="D831" t="s">
-        <v>35</v>
-      </c>
-      <c r="E831" t="s">
-        <v>43</v>
-      </c>
-      <c r="F831" t="s">
-        <v>35</v>
-      </c>
-      <c r="G831" t="s">
-        <v>35</v>
-      </c>
-      <c r="H831">
-        <v>2048</v>
-      </c>
-      <c r="I831" t="s">
-        <v>35</v>
-      </c>
-      <c r="J831" t="s">
-        <v>35</v>
-      </c>
-      <c r="K831" t="s">
-        <v>35</v>
-      </c>
-      <c r="L831" t="s">
-        <v>35</v>
-      </c>
-      <c r="M831">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A832" t="s">
-        <v>66</v>
-      </c>
-      <c r="B832" t="s">
-        <v>34</v>
-      </c>
-      <c r="C832" t="s">
-        <v>21</v>
-      </c>
-      <c r="D832" t="s">
-        <v>35</v>
-      </c>
-      <c r="E832" t="s">
-        <v>43</v>
-      </c>
-      <c r="F832" t="s">
-        <v>35</v>
-      </c>
-      <c r="G832" t="s">
-        <v>35</v>
-      </c>
-      <c r="H832">
-        <v>2049</v>
-      </c>
-      <c r="I832" t="s">
-        <v>35</v>
-      </c>
-      <c r="J832" t="s">
-        <v>35</v>
-      </c>
-      <c r="K832" t="s">
-        <v>35</v>
-      </c>
-      <c r="L832" t="s">
-        <v>35</v>
-      </c>
-      <c r="M832">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A833" t="s">
-        <v>66</v>
-      </c>
-      <c r="B833" t="s">
-        <v>34</v>
-      </c>
-      <c r="C833" t="s">
-        <v>21</v>
-      </c>
-      <c r="D833" t="s">
-        <v>35</v>
-      </c>
-      <c r="E833" t="s">
-        <v>43</v>
-      </c>
-      <c r="F833" t="s">
-        <v>35</v>
-      </c>
-      <c r="G833" t="s">
-        <v>35</v>
-      </c>
-      <c r="H833">
-        <v>2050</v>
-      </c>
-      <c r="I833" t="s">
-        <v>35</v>
-      </c>
-      <c r="J833" t="s">
-        <v>35</v>
-      </c>
-      <c r="K833" t="s">
-        <v>35</v>
-      </c>
-      <c r="L833" t="s">
-        <v>35</v>
-      </c>
-      <c r="M833">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A834" t="s">
-        <v>66</v>
-      </c>
-      <c r="B834" t="s">
-        <v>46</v>
-      </c>
-      <c r="C834" t="s">
-        <v>21</v>
-      </c>
-      <c r="D834" t="s">
-        <v>35</v>
-      </c>
-      <c r="E834" t="s">
-        <v>42</v>
-      </c>
-      <c r="F834" t="s">
-        <v>35</v>
-      </c>
-      <c r="G834" t="s">
-        <v>35</v>
-      </c>
-      <c r="H834">
-        <v>2005</v>
-      </c>
-      <c r="I834" t="s">
-        <v>35</v>
-      </c>
-      <c r="J834" t="s">
-        <v>35</v>
-      </c>
-      <c r="K834" t="s">
-        <v>35</v>
-      </c>
-      <c r="L834" t="s">
-        <v>35</v>
-      </c>
-      <c r="M834">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A835" t="s">
-        <v>66</v>
-      </c>
-      <c r="B835" t="s">
-        <v>46</v>
-      </c>
-      <c r="C835" t="s">
-        <v>21</v>
-      </c>
-      <c r="D835" t="s">
-        <v>35</v>
-      </c>
-      <c r="E835" t="s">
-        <v>43</v>
-      </c>
-      <c r="F835" t="s">
-        <v>35</v>
-      </c>
-      <c r="G835" t="s">
-        <v>35</v>
-      </c>
-      <c r="H835">
-        <v>2005</v>
-      </c>
-      <c r="I835" t="s">
-        <v>35</v>
-      </c>
-      <c r="J835" t="s">
-        <v>35</v>
-      </c>
-      <c r="K835" t="s">
-        <v>35</v>
-      </c>
-      <c r="L835" t="s">
-        <v>35</v>
-      </c>
-      <c r="M835">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A836" t="s">
-        <v>66</v>
-      </c>
-      <c r="B836" t="s">
-        <v>46</v>
-      </c>
-      <c r="C836" t="s">
-        <v>21</v>
-      </c>
-      <c r="D836" t="s">
-        <v>35</v>
-      </c>
-      <c r="E836" t="s">
-        <v>43</v>
-      </c>
-      <c r="F836" t="s">
-        <v>35</v>
-      </c>
-      <c r="G836" t="s">
-        <v>35</v>
-      </c>
-      <c r="H836">
-        <v>2006</v>
-      </c>
-      <c r="I836" t="s">
-        <v>35</v>
-      </c>
-      <c r="J836" t="s">
-        <v>35</v>
-      </c>
-      <c r="K836" t="s">
-        <v>35</v>
-      </c>
-      <c r="L836" t="s">
-        <v>35</v>
-      </c>
-      <c r="M836">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
-        <v>66</v>
-      </c>
-      <c r="B837" t="s">
-        <v>46</v>
-      </c>
-      <c r="C837" t="s">
-        <v>21</v>
-      </c>
-      <c r="D837" t="s">
-        <v>35</v>
-      </c>
-      <c r="E837" t="s">
-        <v>43</v>
-      </c>
-      <c r="F837" t="s">
-        <v>35</v>
-      </c>
-      <c r="G837" t="s">
-        <v>35</v>
-      </c>
-      <c r="H837">
-        <v>2007</v>
-      </c>
-      <c r="I837" t="s">
-        <v>35</v>
-      </c>
-      <c r="J837" t="s">
-        <v>35</v>
-      </c>
-      <c r="K837" t="s">
-        <v>35</v>
-      </c>
-      <c r="L837" t="s">
-        <v>35</v>
-      </c>
-      <c r="M837">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A838" t="s">
-        <v>66</v>
-      </c>
-      <c r="B838" t="s">
-        <v>46</v>
-      </c>
-      <c r="C838" t="s">
-        <v>21</v>
-      </c>
-      <c r="D838" t="s">
-        <v>35</v>
-      </c>
-      <c r="E838" t="s">
-        <v>43</v>
-      </c>
-      <c r="F838" t="s">
-        <v>35</v>
-      </c>
-      <c r="G838" t="s">
-        <v>35</v>
-      </c>
-      <c r="H838">
-        <v>2008</v>
-      </c>
-      <c r="I838" t="s">
-        <v>35</v>
-      </c>
-      <c r="J838" t="s">
-        <v>35</v>
-      </c>
-      <c r="K838" t="s">
-        <v>35</v>
-      </c>
-      <c r="L838" t="s">
-        <v>35</v>
-      </c>
-      <c r="M838">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A839" t="s">
-        <v>66</v>
-      </c>
-      <c r="B839" t="s">
-        <v>46</v>
-      </c>
-      <c r="C839" t="s">
-        <v>21</v>
-      </c>
-      <c r="D839" t="s">
-        <v>35</v>
-      </c>
-      <c r="E839" t="s">
-        <v>43</v>
-      </c>
-      <c r="F839" t="s">
-        <v>35</v>
-      </c>
-      <c r="G839" t="s">
-        <v>35</v>
-      </c>
-      <c r="H839">
-        <v>2009</v>
-      </c>
-      <c r="I839" t="s">
-        <v>35</v>
-      </c>
-      <c r="J839" t="s">
-        <v>35</v>
-      </c>
-      <c r="K839" t="s">
-        <v>35</v>
-      </c>
-      <c r="L839" t="s">
-        <v>35</v>
-      </c>
-      <c r="M839">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
-        <v>66</v>
-      </c>
-      <c r="B840" t="s">
-        <v>46</v>
-      </c>
-      <c r="C840" t="s">
-        <v>21</v>
-      </c>
-      <c r="D840" t="s">
-        <v>35</v>
-      </c>
-      <c r="E840" t="s">
-        <v>43</v>
-      </c>
-      <c r="F840" t="s">
-        <v>35</v>
-      </c>
-      <c r="G840" t="s">
-        <v>35</v>
-      </c>
-      <c r="H840">
-        <v>2010</v>
-      </c>
-      <c r="I840" t="s">
-        <v>35</v>
-      </c>
-      <c r="J840" t="s">
-        <v>35</v>
-      </c>
-      <c r="K840" t="s">
-        <v>35</v>
-      </c>
-      <c r="L840" t="s">
-        <v>35</v>
-      </c>
-      <c r="M840">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A841" t="s">
-        <v>66</v>
-      </c>
-      <c r="B841" t="s">
-        <v>46</v>
-      </c>
-      <c r="C841" t="s">
-        <v>21</v>
-      </c>
-      <c r="D841" t="s">
-        <v>35</v>
-      </c>
-      <c r="E841" t="s">
-        <v>43</v>
-      </c>
-      <c r="F841" t="s">
-        <v>35</v>
-      </c>
-      <c r="G841" t="s">
-        <v>35</v>
-      </c>
-      <c r="H841">
-        <v>2011</v>
-      </c>
-      <c r="I841" t="s">
-        <v>35</v>
-      </c>
-      <c r="J841" t="s">
-        <v>35</v>
-      </c>
-      <c r="K841" t="s">
-        <v>35</v>
-      </c>
-      <c r="L841" t="s">
-        <v>35</v>
-      </c>
-      <c r="M841">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A842" t="s">
-        <v>66</v>
-      </c>
-      <c r="B842" t="s">
-        <v>46</v>
-      </c>
-      <c r="C842" t="s">
-        <v>21</v>
-      </c>
-      <c r="D842" t="s">
-        <v>35</v>
-      </c>
-      <c r="E842" t="s">
-        <v>43</v>
-      </c>
-      <c r="F842" t="s">
-        <v>35</v>
-      </c>
-      <c r="G842" t="s">
-        <v>35</v>
-      </c>
-      <c r="H842">
-        <v>2012</v>
-      </c>
-      <c r="I842" t="s">
-        <v>35</v>
-      </c>
-      <c r="J842" t="s">
-        <v>35</v>
-      </c>
-      <c r="K842" t="s">
-        <v>35</v>
-      </c>
-      <c r="L842" t="s">
-        <v>35</v>
-      </c>
-      <c r="M842">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A843" t="s">
-        <v>66</v>
-      </c>
-      <c r="B843" t="s">
-        <v>46</v>
-      </c>
-      <c r="C843" t="s">
-        <v>21</v>
-      </c>
-      <c r="D843" t="s">
-        <v>35</v>
-      </c>
-      <c r="E843" t="s">
-        <v>43</v>
-      </c>
-      <c r="F843" t="s">
-        <v>35</v>
-      </c>
-      <c r="G843" t="s">
-        <v>35</v>
-      </c>
-      <c r="H843">
-        <v>2013</v>
-      </c>
-      <c r="I843" t="s">
-        <v>35</v>
-      </c>
-      <c r="J843" t="s">
-        <v>35</v>
-      </c>
-      <c r="K843" t="s">
-        <v>35</v>
-      </c>
-      <c r="L843" t="s">
-        <v>35</v>
-      </c>
-      <c r="M843">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="844" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
-        <v>66</v>
-      </c>
-      <c r="B844" t="s">
-        <v>46</v>
-      </c>
-      <c r="C844" t="s">
-        <v>21</v>
-      </c>
-      <c r="D844" t="s">
-        <v>35</v>
-      </c>
-      <c r="E844" t="s">
-        <v>43</v>
-      </c>
-      <c r="F844" t="s">
-        <v>35</v>
-      </c>
-      <c r="G844" t="s">
-        <v>35</v>
-      </c>
-      <c r="H844">
-        <v>2014</v>
-      </c>
-      <c r="I844" t="s">
-        <v>35</v>
-      </c>
-      <c r="J844" t="s">
-        <v>35</v>
-      </c>
-      <c r="K844" t="s">
-        <v>35</v>
-      </c>
-      <c r="L844" t="s">
-        <v>35</v>
-      </c>
-      <c r="M844">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="845" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A845" t="s">
-        <v>66</v>
-      </c>
-      <c r="B845" t="s">
-        <v>46</v>
-      </c>
-      <c r="C845" t="s">
-        <v>21</v>
-      </c>
-      <c r="D845" t="s">
-        <v>35</v>
-      </c>
-      <c r="E845" t="s">
-        <v>43</v>
-      </c>
-      <c r="F845" t="s">
-        <v>35</v>
-      </c>
-      <c r="G845" t="s">
-        <v>35</v>
-      </c>
-      <c r="H845">
-        <v>2015</v>
-      </c>
-      <c r="I845" t="s">
-        <v>35</v>
-      </c>
-      <c r="J845" t="s">
-        <v>35</v>
-      </c>
-      <c r="K845" t="s">
-        <v>35</v>
-      </c>
-      <c r="L845" t="s">
-        <v>35</v>
-      </c>
-      <c r="M845">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="846" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A846" t="s">
-        <v>66</v>
-      </c>
-      <c r="B846" t="s">
-        <v>46</v>
-      </c>
-      <c r="C846" t="s">
-        <v>21</v>
-      </c>
-      <c r="D846" t="s">
-        <v>35</v>
-      </c>
-      <c r="E846" t="s">
-        <v>43</v>
-      </c>
-      <c r="F846" t="s">
-        <v>35</v>
-      </c>
-      <c r="G846" t="s">
-        <v>35</v>
-      </c>
-      <c r="H846">
-        <v>2016</v>
-      </c>
-      <c r="I846" t="s">
-        <v>35</v>
-      </c>
-      <c r="J846" t="s">
-        <v>35</v>
-      </c>
-      <c r="K846" t="s">
-        <v>35</v>
-      </c>
-      <c r="L846" t="s">
-        <v>35</v>
-      </c>
-      <c r="M846">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="847" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A847" t="s">
-        <v>66</v>
-      </c>
-      <c r="B847" t="s">
-        <v>46</v>
-      </c>
-      <c r="C847" t="s">
-        <v>21</v>
-      </c>
-      <c r="D847" t="s">
-        <v>35</v>
-      </c>
-      <c r="E847" t="s">
-        <v>43</v>
-      </c>
-      <c r="F847" t="s">
-        <v>35</v>
-      </c>
-      <c r="G847" t="s">
-        <v>35</v>
-      </c>
-      <c r="H847">
-        <v>2017</v>
-      </c>
-      <c r="I847" t="s">
-        <v>35</v>
-      </c>
-      <c r="J847" t="s">
-        <v>35</v>
-      </c>
-      <c r="K847" t="s">
-        <v>35</v>
-      </c>
-      <c r="L847" t="s">
-        <v>35</v>
-      </c>
-      <c r="M847">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="848" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A848" t="s">
-        <v>66</v>
-      </c>
-      <c r="B848" t="s">
-        <v>46</v>
-      </c>
-      <c r="C848" t="s">
-        <v>21</v>
-      </c>
-      <c r="D848" t="s">
-        <v>35</v>
-      </c>
-      <c r="E848" t="s">
-        <v>43</v>
-      </c>
-      <c r="F848" t="s">
-        <v>35</v>
-      </c>
-      <c r="G848" t="s">
-        <v>35</v>
-      </c>
-      <c r="H848">
-        <v>2018</v>
-      </c>
-      <c r="I848" t="s">
-        <v>35</v>
-      </c>
-      <c r="J848" t="s">
-        <v>35</v>
-      </c>
-      <c r="K848" t="s">
-        <v>35</v>
-      </c>
-      <c r="L848" t="s">
-        <v>35</v>
-      </c>
-      <c r="M848">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="849" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A849" t="s">
-        <v>66</v>
-      </c>
-      <c r="B849" t="s">
-        <v>46</v>
-      </c>
-      <c r="C849" t="s">
-        <v>21</v>
-      </c>
-      <c r="D849" t="s">
-        <v>35</v>
-      </c>
-      <c r="E849" t="s">
-        <v>43</v>
-      </c>
-      <c r="F849" t="s">
-        <v>35</v>
-      </c>
-      <c r="G849" t="s">
-        <v>35</v>
-      </c>
-      <c r="H849">
-        <v>2019</v>
-      </c>
-      <c r="I849" t="s">
-        <v>35</v>
-      </c>
-      <c r="J849" t="s">
-        <v>35</v>
-      </c>
-      <c r="K849" t="s">
-        <v>35</v>
-      </c>
-      <c r="L849" t="s">
-        <v>35</v>
-      </c>
-      <c r="M849">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="850" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A850" t="s">
-        <v>66</v>
-      </c>
-      <c r="B850" t="s">
-        <v>46</v>
-      </c>
-      <c r="C850" t="s">
-        <v>21</v>
-      </c>
-      <c r="D850" t="s">
-        <v>35</v>
-      </c>
-      <c r="E850" t="s">
-        <v>43</v>
-      </c>
-      <c r="F850" t="s">
-        <v>35</v>
-      </c>
-      <c r="G850" t="s">
-        <v>35</v>
-      </c>
-      <c r="H850">
-        <v>2020</v>
-      </c>
-      <c r="I850" t="s">
-        <v>35</v>
-      </c>
-      <c r="J850" t="s">
-        <v>35</v>
-      </c>
-      <c r="K850" t="s">
-        <v>35</v>
-      </c>
-      <c r="L850" t="s">
-        <v>35</v>
-      </c>
-      <c r="M850">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="851" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A851" t="s">
-        <v>66</v>
-      </c>
-      <c r="B851" t="s">
-        <v>46</v>
-      </c>
-      <c r="C851" t="s">
-        <v>21</v>
-      </c>
-      <c r="D851" t="s">
-        <v>35</v>
-      </c>
-      <c r="E851" t="s">
-        <v>43</v>
-      </c>
-      <c r="F851" t="s">
-        <v>35</v>
-      </c>
-      <c r="G851" t="s">
-        <v>35</v>
-      </c>
-      <c r="H851">
-        <v>2021</v>
-      </c>
-      <c r="I851" t="s">
-        <v>35</v>
-      </c>
-      <c r="J851" t="s">
-        <v>35</v>
-      </c>
-      <c r="K851" t="s">
-        <v>35</v>
-      </c>
-      <c r="L851" t="s">
-        <v>35</v>
-      </c>
-      <c r="M851">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="852" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A852" t="s">
-        <v>66</v>
-      </c>
-      <c r="B852" t="s">
-        <v>46</v>
-      </c>
-      <c r="C852" t="s">
-        <v>21</v>
-      </c>
-      <c r="D852" t="s">
-        <v>35</v>
-      </c>
-      <c r="E852" t="s">
-        <v>43</v>
-      </c>
-      <c r="F852" t="s">
-        <v>35</v>
-      </c>
-      <c r="G852" t="s">
-        <v>35</v>
-      </c>
-      <c r="H852">
-        <v>2022</v>
-      </c>
-      <c r="I852" t="s">
-        <v>35</v>
-      </c>
-      <c r="J852" t="s">
-        <v>35</v>
-      </c>
-      <c r="K852" t="s">
-        <v>35</v>
-      </c>
-      <c r="L852" t="s">
-        <v>35</v>
-      </c>
-      <c r="M852">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="853" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A853" t="s">
-        <v>66</v>
-      </c>
-      <c r="B853" t="s">
-        <v>46</v>
-      </c>
-      <c r="C853" t="s">
-        <v>21</v>
-      </c>
-      <c r="D853" t="s">
-        <v>35</v>
-      </c>
-      <c r="E853" t="s">
-        <v>43</v>
-      </c>
-      <c r="F853" t="s">
-        <v>35</v>
-      </c>
-      <c r="G853" t="s">
-        <v>35</v>
-      </c>
-      <c r="H853">
-        <v>2023</v>
-      </c>
-      <c r="I853" t="s">
-        <v>35</v>
-      </c>
-      <c r="J853" t="s">
-        <v>35</v>
-      </c>
-      <c r="K853" t="s">
-        <v>35</v>
-      </c>
-      <c r="L853" t="s">
-        <v>35</v>
-      </c>
-      <c r="M853">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="854" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A854" t="s">
-        <v>66</v>
-      </c>
-      <c r="B854" t="s">
-        <v>46</v>
-      </c>
-      <c r="C854" t="s">
-        <v>21</v>
-      </c>
-      <c r="D854" t="s">
-        <v>35</v>
-      </c>
-      <c r="E854" t="s">
-        <v>43</v>
-      </c>
-      <c r="F854" t="s">
-        <v>35</v>
-      </c>
-      <c r="G854" t="s">
-        <v>35</v>
-      </c>
-      <c r="H854">
-        <v>2024</v>
-      </c>
-      <c r="I854" t="s">
-        <v>35</v>
-      </c>
-      <c r="J854" t="s">
-        <v>35</v>
-      </c>
-      <c r="K854" t="s">
-        <v>35</v>
-      </c>
-      <c r="L854" t="s">
-        <v>35</v>
-      </c>
-      <c r="M854">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="855" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A855" t="s">
-        <v>66</v>
-      </c>
-      <c r="B855" t="s">
-        <v>46</v>
-      </c>
-      <c r="C855" t="s">
-        <v>21</v>
-      </c>
-      <c r="D855" t="s">
-        <v>35</v>
-      </c>
-      <c r="E855" t="s">
-        <v>43</v>
-      </c>
-      <c r="F855" t="s">
-        <v>35</v>
-      </c>
-      <c r="G855" t="s">
-        <v>35</v>
-      </c>
-      <c r="H855">
-        <v>2025</v>
-      </c>
-      <c r="I855" t="s">
-        <v>35</v>
-      </c>
-      <c r="J855" t="s">
-        <v>35</v>
-      </c>
-      <c r="K855" t="s">
-        <v>35</v>
-      </c>
-      <c r="L855" t="s">
-        <v>35</v>
-      </c>
-      <c r="M855">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="856" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A856" t="s">
-        <v>66</v>
-      </c>
-      <c r="B856" t="s">
-        <v>46</v>
-      </c>
-      <c r="C856" t="s">
-        <v>21</v>
-      </c>
-      <c r="D856" t="s">
-        <v>35</v>
-      </c>
-      <c r="E856" t="s">
-        <v>43</v>
-      </c>
-      <c r="F856" t="s">
-        <v>35</v>
-      </c>
-      <c r="G856" t="s">
-        <v>35</v>
-      </c>
-      <c r="H856">
-        <v>2026</v>
-      </c>
-      <c r="I856" t="s">
-        <v>35</v>
-      </c>
-      <c r="J856" t="s">
-        <v>35</v>
-      </c>
-      <c r="K856" t="s">
-        <v>35</v>
-      </c>
-      <c r="L856" t="s">
-        <v>35</v>
-      </c>
-      <c r="M856">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="857" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A857" t="s">
-        <v>66</v>
-      </c>
-      <c r="B857" t="s">
-        <v>46</v>
-      </c>
-      <c r="C857" t="s">
-        <v>21</v>
-      </c>
-      <c r="D857" t="s">
-        <v>35</v>
-      </c>
-      <c r="E857" t="s">
-        <v>43</v>
-      </c>
-      <c r="F857" t="s">
-        <v>35</v>
-      </c>
-      <c r="G857" t="s">
-        <v>35</v>
-      </c>
-      <c r="H857">
-        <v>2027</v>
-      </c>
-      <c r="I857" t="s">
-        <v>35</v>
-      </c>
-      <c r="J857" t="s">
-        <v>35</v>
-      </c>
-      <c r="K857" t="s">
-        <v>35</v>
-      </c>
-      <c r="L857" t="s">
-        <v>35</v>
-      </c>
-      <c r="M857">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="858" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A858" t="s">
-        <v>66</v>
-      </c>
-      <c r="B858" t="s">
-        <v>46</v>
-      </c>
-      <c r="C858" t="s">
-        <v>21</v>
-      </c>
-      <c r="D858" t="s">
-        <v>35</v>
-      </c>
-      <c r="E858" t="s">
-        <v>43</v>
-      </c>
-      <c r="F858" t="s">
-        <v>35</v>
-      </c>
-      <c r="G858" t="s">
-        <v>35</v>
-      </c>
-      <c r="H858">
-        <v>2028</v>
-      </c>
-      <c r="I858" t="s">
-        <v>35</v>
-      </c>
-      <c r="J858" t="s">
-        <v>35</v>
-      </c>
-      <c r="K858" t="s">
-        <v>35</v>
-      </c>
-      <c r="L858" t="s">
-        <v>35</v>
-      </c>
-      <c r="M858">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="859" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A859" t="s">
-        <v>66</v>
-      </c>
-      <c r="B859" t="s">
-        <v>46</v>
-      </c>
-      <c r="C859" t="s">
-        <v>21</v>
-      </c>
-      <c r="D859" t="s">
-        <v>35</v>
-      </c>
-      <c r="E859" t="s">
-        <v>43</v>
-      </c>
-      <c r="F859" t="s">
-        <v>35</v>
-      </c>
-      <c r="G859" t="s">
-        <v>35</v>
-      </c>
-      <c r="H859">
-        <v>2029</v>
-      </c>
-      <c r="I859" t="s">
-        <v>35</v>
-      </c>
-      <c r="J859" t="s">
-        <v>35</v>
-      </c>
-      <c r="K859" t="s">
-        <v>35</v>
-      </c>
-      <c r="L859" t="s">
-        <v>35</v>
-      </c>
-      <c r="M859">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="860" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
-        <v>66</v>
-      </c>
-      <c r="B860" t="s">
-        <v>46</v>
-      </c>
-      <c r="C860" t="s">
-        <v>21</v>
-      </c>
-      <c r="D860" t="s">
-        <v>35</v>
-      </c>
-      <c r="E860" t="s">
-        <v>43</v>
-      </c>
-      <c r="F860" t="s">
-        <v>35</v>
-      </c>
-      <c r="G860" t="s">
-        <v>35</v>
-      </c>
-      <c r="H860">
-        <v>2030</v>
-      </c>
-      <c r="I860" t="s">
-        <v>35</v>
-      </c>
-      <c r="J860" t="s">
-        <v>35</v>
-      </c>
-      <c r="K860" t="s">
-        <v>35</v>
-      </c>
-      <c r="L860" t="s">
-        <v>35</v>
-      </c>
-      <c r="M860">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="861" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
-        <v>66</v>
-      </c>
-      <c r="B861" t="s">
-        <v>46</v>
-      </c>
-      <c r="C861" t="s">
-        <v>21</v>
-      </c>
-      <c r="D861" t="s">
-        <v>35</v>
-      </c>
-      <c r="E861" t="s">
-        <v>43</v>
-      </c>
-      <c r="F861" t="s">
-        <v>35</v>
-      </c>
-      <c r="G861" t="s">
-        <v>35</v>
-      </c>
-      <c r="H861">
-        <v>2031</v>
-      </c>
-      <c r="I861" t="s">
-        <v>35</v>
-      </c>
-      <c r="J861" t="s">
-        <v>35</v>
-      </c>
-      <c r="K861" t="s">
-        <v>35</v>
-      </c>
-      <c r="L861" t="s">
-        <v>35</v>
-      </c>
-      <c r="M861">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="862" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A862" t="s">
-        <v>66</v>
-      </c>
-      <c r="B862" t="s">
-        <v>46</v>
-      </c>
-      <c r="C862" t="s">
-        <v>21</v>
-      </c>
-      <c r="D862" t="s">
-        <v>35</v>
-      </c>
-      <c r="E862" t="s">
-        <v>43</v>
-      </c>
-      <c r="F862" t="s">
-        <v>35</v>
-      </c>
-      <c r="G862" t="s">
-        <v>35</v>
-      </c>
-      <c r="H862">
-        <v>2032</v>
-      </c>
-      <c r="I862" t="s">
-        <v>35</v>
-      </c>
-      <c r="J862" t="s">
-        <v>35</v>
-      </c>
-      <c r="K862" t="s">
-        <v>35</v>
-      </c>
-      <c r="L862" t="s">
-        <v>35</v>
-      </c>
-      <c r="M862">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="863" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A863" t="s">
-        <v>66</v>
-      </c>
-      <c r="B863" t="s">
-        <v>46</v>
-      </c>
-      <c r="C863" t="s">
-        <v>21</v>
-      </c>
-      <c r="D863" t="s">
-        <v>35</v>
-      </c>
-      <c r="E863" t="s">
-        <v>43</v>
-      </c>
-      <c r="F863" t="s">
-        <v>35</v>
-      </c>
-      <c r="G863" t="s">
-        <v>35</v>
-      </c>
-      <c r="H863">
-        <v>2033</v>
-      </c>
-      <c r="I863" t="s">
-        <v>35</v>
-      </c>
-      <c r="J863" t="s">
-        <v>35</v>
-      </c>
-      <c r="K863" t="s">
-        <v>35</v>
-      </c>
-      <c r="L863" t="s">
-        <v>35</v>
-      </c>
-      <c r="M863">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="864" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A864" t="s">
-        <v>66</v>
-      </c>
-      <c r="B864" t="s">
-        <v>46</v>
-      </c>
-      <c r="C864" t="s">
-        <v>21</v>
-      </c>
-      <c r="D864" t="s">
-        <v>35</v>
-      </c>
-      <c r="E864" t="s">
-        <v>43</v>
-      </c>
-      <c r="F864" t="s">
-        <v>35</v>
-      </c>
-      <c r="G864" t="s">
-        <v>35</v>
-      </c>
-      <c r="H864">
-        <v>2034</v>
-      </c>
-      <c r="I864" t="s">
-        <v>35</v>
-      </c>
-      <c r="J864" t="s">
-        <v>35</v>
-      </c>
-      <c r="K864" t="s">
-        <v>35</v>
-      </c>
-      <c r="L864" t="s">
-        <v>35</v>
-      </c>
-      <c r="M864">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="865" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A865" t="s">
-        <v>66</v>
-      </c>
-      <c r="B865" t="s">
-        <v>46</v>
-      </c>
-      <c r="C865" t="s">
-        <v>21</v>
-      </c>
-      <c r="D865" t="s">
-        <v>35</v>
-      </c>
-      <c r="E865" t="s">
-        <v>43</v>
-      </c>
-      <c r="F865" t="s">
-        <v>35</v>
-      </c>
-      <c r="G865" t="s">
-        <v>35</v>
-      </c>
-      <c r="H865">
-        <v>2035</v>
-      </c>
-      <c r="I865" t="s">
-        <v>35</v>
-      </c>
-      <c r="J865" t="s">
-        <v>35</v>
-      </c>
-      <c r="K865" t="s">
-        <v>35</v>
-      </c>
-      <c r="L865" t="s">
-        <v>35</v>
-      </c>
-      <c r="M865">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="866" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A866" t="s">
-        <v>66</v>
-      </c>
-      <c r="B866" t="s">
-        <v>46</v>
-      </c>
-      <c r="C866" t="s">
-        <v>21</v>
-      </c>
-      <c r="D866" t="s">
-        <v>35</v>
-      </c>
-      <c r="E866" t="s">
-        <v>43</v>
-      </c>
-      <c r="F866" t="s">
-        <v>35</v>
-      </c>
-      <c r="G866" t="s">
-        <v>35</v>
-      </c>
-      <c r="H866">
-        <v>2036</v>
-      </c>
-      <c r="I866" t="s">
-        <v>35</v>
-      </c>
-      <c r="J866" t="s">
-        <v>35</v>
-      </c>
-      <c r="K866" t="s">
-        <v>35</v>
-      </c>
-      <c r="L866" t="s">
-        <v>35</v>
-      </c>
-      <c r="M866">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="867" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
-        <v>66</v>
-      </c>
-      <c r="B867" t="s">
-        <v>46</v>
-      </c>
-      <c r="C867" t="s">
-        <v>21</v>
-      </c>
-      <c r="D867" t="s">
-        <v>35</v>
-      </c>
-      <c r="E867" t="s">
-        <v>43</v>
-      </c>
-      <c r="F867" t="s">
-        <v>35</v>
-      </c>
-      <c r="G867" t="s">
-        <v>35</v>
-      </c>
-      <c r="H867">
-        <v>2037</v>
-      </c>
-      <c r="I867" t="s">
-        <v>35</v>
-      </c>
-      <c r="J867" t="s">
-        <v>35</v>
-      </c>
-      <c r="K867" t="s">
-        <v>35</v>
-      </c>
-      <c r="L867" t="s">
-        <v>35</v>
-      </c>
-      <c r="M867">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="868" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A868" t="s">
-        <v>66</v>
-      </c>
-      <c r="B868" t="s">
-        <v>46</v>
-      </c>
-      <c r="C868" t="s">
-        <v>21</v>
-      </c>
-      <c r="D868" t="s">
-        <v>35</v>
-      </c>
-      <c r="E868" t="s">
-        <v>43</v>
-      </c>
-      <c r="F868" t="s">
-        <v>35</v>
-      </c>
-      <c r="G868" t="s">
-        <v>35</v>
-      </c>
-      <c r="H868">
-        <v>2038</v>
-      </c>
-      <c r="I868" t="s">
-        <v>35</v>
-      </c>
-      <c r="J868" t="s">
-        <v>35</v>
-      </c>
-      <c r="K868" t="s">
-        <v>35</v>
-      </c>
-      <c r="L868" t="s">
-        <v>35</v>
-      </c>
-      <c r="M868">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="869" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
-        <v>66</v>
-      </c>
-      <c r="B869" t="s">
-        <v>46</v>
-      </c>
-      <c r="C869" t="s">
-        <v>21</v>
-      </c>
-      <c r="D869" t="s">
-        <v>35</v>
-      </c>
-      <c r="E869" t="s">
-        <v>43</v>
-      </c>
-      <c r="F869" t="s">
-        <v>35</v>
-      </c>
-      <c r="G869" t="s">
-        <v>35</v>
-      </c>
-      <c r="H869">
-        <v>2039</v>
-      </c>
-      <c r="I869" t="s">
-        <v>35</v>
-      </c>
-      <c r="J869" t="s">
-        <v>35</v>
-      </c>
-      <c r="K869" t="s">
-        <v>35</v>
-      </c>
-      <c r="L869" t="s">
-        <v>35</v>
-      </c>
-      <c r="M869">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="870" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A870" t="s">
-        <v>66</v>
-      </c>
-      <c r="B870" t="s">
-        <v>46</v>
-      </c>
-      <c r="C870" t="s">
-        <v>21</v>
-      </c>
-      <c r="D870" t="s">
-        <v>35</v>
-      </c>
-      <c r="E870" t="s">
-        <v>43</v>
-      </c>
-      <c r="F870" t="s">
-        <v>35</v>
-      </c>
-      <c r="G870" t="s">
-        <v>35</v>
-      </c>
-      <c r="H870">
-        <v>2040</v>
-      </c>
-      <c r="I870" t="s">
-        <v>35</v>
-      </c>
-      <c r="J870" t="s">
-        <v>35</v>
-      </c>
-      <c r="K870" t="s">
-        <v>35</v>
-      </c>
-      <c r="L870" t="s">
-        <v>35</v>
-      </c>
-      <c r="M870">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A871" t="s">
-        <v>66</v>
-      </c>
-      <c r="B871" t="s">
-        <v>46</v>
-      </c>
-      <c r="C871" t="s">
-        <v>21</v>
-      </c>
-      <c r="D871" t="s">
-        <v>35</v>
-      </c>
-      <c r="E871" t="s">
-        <v>43</v>
-      </c>
-      <c r="F871" t="s">
-        <v>35</v>
-      </c>
-      <c r="G871" t="s">
-        <v>35</v>
-      </c>
-      <c r="H871">
-        <v>2041</v>
-      </c>
-      <c r="I871" t="s">
-        <v>35</v>
-      </c>
-      <c r="J871" t="s">
-        <v>35</v>
-      </c>
-      <c r="K871" t="s">
-        <v>35</v>
-      </c>
-      <c r="L871" t="s">
-        <v>35</v>
-      </c>
-      <c r="M871">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="872" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A872" t="s">
-        <v>66</v>
-      </c>
-      <c r="B872" t="s">
-        <v>46</v>
-      </c>
-      <c r="C872" t="s">
-        <v>21</v>
-      </c>
-      <c r="D872" t="s">
-        <v>35</v>
-      </c>
-      <c r="E872" t="s">
-        <v>43</v>
-      </c>
-      <c r="F872" t="s">
-        <v>35</v>
-      </c>
-      <c r="G872" t="s">
-        <v>35</v>
-      </c>
-      <c r="H872">
-        <v>2042</v>
-      </c>
-      <c r="I872" t="s">
-        <v>35</v>
-      </c>
-      <c r="J872" t="s">
-        <v>35</v>
-      </c>
-      <c r="K872" t="s">
-        <v>35</v>
-      </c>
-      <c r="L872" t="s">
-        <v>35</v>
-      </c>
-      <c r="M872">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="873" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A873" t="s">
-        <v>66</v>
-      </c>
-      <c r="B873" t="s">
-        <v>46</v>
-      </c>
-      <c r="C873" t="s">
-        <v>21</v>
-      </c>
-      <c r="D873" t="s">
-        <v>35</v>
-      </c>
-      <c r="E873" t="s">
-        <v>43</v>
-      </c>
-      <c r="F873" t="s">
-        <v>35</v>
-      </c>
-      <c r="G873" t="s">
-        <v>35</v>
-      </c>
-      <c r="H873">
-        <v>2043</v>
-      </c>
-      <c r="I873" t="s">
-        <v>35</v>
-      </c>
-      <c r="J873" t="s">
-        <v>35</v>
-      </c>
-      <c r="K873" t="s">
-        <v>35</v>
-      </c>
-      <c r="L873" t="s">
-        <v>35</v>
-      </c>
-      <c r="M873">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A874" t="s">
-        <v>66</v>
-      </c>
-      <c r="B874" t="s">
-        <v>46</v>
-      </c>
-      <c r="C874" t="s">
-        <v>21</v>
-      </c>
-      <c r="D874" t="s">
-        <v>35</v>
-      </c>
-      <c r="E874" t="s">
-        <v>43</v>
-      </c>
-      <c r="F874" t="s">
-        <v>35</v>
-      </c>
-      <c r="G874" t="s">
-        <v>35</v>
-      </c>
-      <c r="H874">
-        <v>2044</v>
-      </c>
-      <c r="I874" t="s">
-        <v>35</v>
-      </c>
-      <c r="J874" t="s">
-        <v>35</v>
-      </c>
-      <c r="K874" t="s">
-        <v>35</v>
-      </c>
-      <c r="L874" t="s">
-        <v>35</v>
-      </c>
-      <c r="M874">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A875" t="s">
-        <v>66</v>
-      </c>
-      <c r="B875" t="s">
-        <v>46</v>
-      </c>
-      <c r="C875" t="s">
-        <v>21</v>
-      </c>
-      <c r="D875" t="s">
-        <v>35</v>
-      </c>
-      <c r="E875" t="s">
-        <v>43</v>
-      </c>
-      <c r="F875" t="s">
-        <v>35</v>
-      </c>
-      <c r="G875" t="s">
-        <v>35</v>
-      </c>
-      <c r="H875">
-        <v>2045</v>
-      </c>
-      <c r="I875" t="s">
-        <v>35</v>
-      </c>
-      <c r="J875" t="s">
-        <v>35</v>
-      </c>
-      <c r="K875" t="s">
-        <v>35</v>
-      </c>
-      <c r="L875" t="s">
-        <v>35</v>
-      </c>
-      <c r="M875">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A876" t="s">
-        <v>66</v>
-      </c>
-      <c r="B876" t="s">
-        <v>46</v>
-      </c>
-      <c r="C876" t="s">
-        <v>21</v>
-      </c>
-      <c r="D876" t="s">
-        <v>35</v>
-      </c>
-      <c r="E876" t="s">
-        <v>43</v>
-      </c>
-      <c r="F876" t="s">
-        <v>35</v>
-      </c>
-      <c r="G876" t="s">
-        <v>35</v>
-      </c>
-      <c r="H876">
-        <v>2046</v>
-      </c>
-      <c r="I876" t="s">
-        <v>35</v>
-      </c>
-      <c r="J876" t="s">
-        <v>35</v>
-      </c>
-      <c r="K876" t="s">
-        <v>35</v>
-      </c>
-      <c r="L876" t="s">
-        <v>35</v>
-      </c>
-      <c r="M876">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A877" t="s">
-        <v>66</v>
-      </c>
-      <c r="B877" t="s">
-        <v>46</v>
-      </c>
-      <c r="C877" t="s">
-        <v>21</v>
-      </c>
-      <c r="D877" t="s">
-        <v>35</v>
-      </c>
-      <c r="E877" t="s">
-        <v>43</v>
-      </c>
-      <c r="F877" t="s">
-        <v>35</v>
-      </c>
-      <c r="G877" t="s">
-        <v>35</v>
-      </c>
-      <c r="H877">
-        <v>2047</v>
-      </c>
-      <c r="I877" t="s">
-        <v>35</v>
-      </c>
-      <c r="J877" t="s">
-        <v>35</v>
-      </c>
-      <c r="K877" t="s">
-        <v>35</v>
-      </c>
-      <c r="L877" t="s">
-        <v>35</v>
-      </c>
-      <c r="M877">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A878" t="s">
-        <v>66</v>
-      </c>
-      <c r="B878" t="s">
-        <v>46</v>
-      </c>
-      <c r="C878" t="s">
-        <v>21</v>
-      </c>
-      <c r="D878" t="s">
-        <v>35</v>
-      </c>
-      <c r="E878" t="s">
-        <v>43</v>
-      </c>
-      <c r="F878" t="s">
-        <v>35</v>
-      </c>
-      <c r="G878" t="s">
-        <v>35</v>
-      </c>
-      <c r="H878">
-        <v>2048</v>
-      </c>
-      <c r="I878" t="s">
-        <v>35</v>
-      </c>
-      <c r="J878" t="s">
-        <v>35</v>
-      </c>
-      <c r="K878" t="s">
-        <v>35</v>
-      </c>
-      <c r="L878" t="s">
-        <v>35</v>
-      </c>
-      <c r="M878">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>66</v>
-      </c>
-      <c r="B879" t="s">
-        <v>46</v>
-      </c>
-      <c r="C879" t="s">
-        <v>21</v>
-      </c>
-      <c r="D879" t="s">
-        <v>35</v>
-      </c>
-      <c r="E879" t="s">
-        <v>43</v>
-      </c>
-      <c r="F879" t="s">
-        <v>35</v>
-      </c>
-      <c r="G879" t="s">
-        <v>35</v>
-      </c>
-      <c r="H879">
-        <v>2049</v>
-      </c>
-      <c r="I879" t="s">
-        <v>35</v>
-      </c>
-      <c r="J879" t="s">
-        <v>35</v>
-      </c>
-      <c r="K879" t="s">
-        <v>35</v>
-      </c>
-      <c r="L879" t="s">
-        <v>35</v>
-      </c>
-      <c r="M879">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A880" t="s">
-        <v>66</v>
-      </c>
-      <c r="B880" t="s">
-        <v>46</v>
-      </c>
-      <c r="C880" t="s">
-        <v>21</v>
-      </c>
-      <c r="D880" t="s">
-        <v>35</v>
-      </c>
-      <c r="E880" t="s">
-        <v>43</v>
-      </c>
-      <c r="F880" t="s">
-        <v>35</v>
-      </c>
-      <c r="G880" t="s">
-        <v>35</v>
-      </c>
-      <c r="H880">
-        <v>2050</v>
-      </c>
-      <c r="I880" t="s">
-        <v>35</v>
-      </c>
-      <c r="J880" t="s">
-        <v>35</v>
-      </c>
-      <c r="K880" t="s">
-        <v>35</v>
-      </c>
-      <c r="L880" t="s">
-        <v>35</v>
-      </c>
-      <c r="M880">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -37095,7 +33235,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
@@ -37396,7 +33536,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -37405,7 +33545,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -37417,7 +33557,7 @@
         <v>47</v>
       </c>
       <c r="H8">
-        <v>2050</v>
+        <v>2005</v>
       </c>
       <c r="I8" t="s">
         <v>35</v>
@@ -37432,12 +33572,12 @@
         <v>35</v>
       </c>
       <c r="M8">
-        <v>0.42240000000000005</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -37446,7 +33586,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -37458,7 +33598,7 @@
         <v>47</v>
       </c>
       <c r="H9">
-        <v>2050</v>
+        <v>2006</v>
       </c>
       <c r="I9" t="s">
         <v>35</v>
@@ -37473,12 +33613,12 @@
         <v>35</v>
       </c>
       <c r="M9">
-        <v>0.46200000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -37499,7 +33639,7 @@
         <v>47</v>
       </c>
       <c r="H10">
-        <v>2050</v>
+        <v>2010</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -37514,12 +33654,12 @@
         <v>35</v>
       </c>
       <c r="M10">
-        <v>0.46200000000000002</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -37528,7 +33668,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
@@ -37540,7 +33680,7 @@
         <v>47</v>
       </c>
       <c r="H11">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -37555,12 +33695,12 @@
         <v>35</v>
       </c>
       <c r="M11">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -37569,7 +33709,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
@@ -37581,7 +33721,7 @@
         <v>47</v>
       </c>
       <c r="H12">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="I12" t="s">
         <v>35</v>
@@ -37596,12 +33736,12 @@
         <v>35</v>
       </c>
       <c r="M12">
-        <v>0.56100000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -37610,7 +33750,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -37622,7 +33762,7 @@
         <v>47</v>
       </c>
       <c r="H13">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
@@ -37637,12 +33777,12 @@
         <v>35</v>
       </c>
       <c r="M13">
-        <v>0.51</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -37651,7 +33791,7 @@
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
@@ -37663,7 +33803,7 @@
         <v>47</v>
       </c>
       <c r="H14">
-        <v>2050</v>
+        <v>2005</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
@@ -37678,12 +33818,12 @@
         <v>35</v>
       </c>
       <c r="M14">
-        <v>0.56100000000000005</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -37692,7 +33832,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -37724,7 +33864,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -37733,7 +33873,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
@@ -37765,7 +33905,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -37774,7 +33914,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -37806,7 +33946,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -37815,7 +33955,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -37847,7 +33987,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -37856,7 +33996,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -37883,293 +34023,6 @@
         <v>35</v>
       </c>
       <c r="M19">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20">
-        <v>2005</v>
-      </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21">
-        <v>2005</v>
-      </c>
-      <c r="I21" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22">
-        <v>2005</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23">
-        <v>2006</v>
-      </c>
-      <c r="I23" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24">
-        <v>2010</v>
-      </c>
-      <c r="I24" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
-      <c r="M24">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25">
-        <v>2015</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" t="s">
-        <v>35</v>
-      </c>
-      <c r="M25">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26">
-        <v>2020</v>
-      </c>
-      <c r="I26" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-      <c r="M26">
         <v>0.55000000000000004</v>
       </c>
     </row>

--- a/suppxls/Scen_nsv_demo_FillTable_nsv.xlsx
+++ b/suppxls/Scen_nsv_demo_FillTable_nsv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_Adv_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5859A3-7679-473E-8CE9-A0AB757FE522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2854ED2-D60A-4CDB-9CAC-E531E433AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="3585" windowWidth="21600" windowHeight="12735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old FILL" sheetId="6" r:id="rId1"/>
@@ -1363,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="H10">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I10" t="s">
         <v>35</v>
@@ -1404,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="H11">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -1773,7 +1773,7 @@
         <v>35</v>
       </c>
       <c r="H20">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I20" t="s">
         <v>35</v>
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="H21">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="I21" t="s">
         <v>35</v>
